--- a/natmiOut/OldD7/LR-pairs_lrc2p/Apoe-Lrp8.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Apoe-Lrp8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>25.7387598257833</v>
+        <v>29.32133366666666</v>
       </c>
       <c r="H2">
-        <v>25.7387598257833</v>
+        <v>87.964001</v>
       </c>
       <c r="I2">
-        <v>0.006070170311979845</v>
+        <v>0.006401919837078288</v>
       </c>
       <c r="J2">
-        <v>0.006070170311979845</v>
+        <v>0.006401919837078288</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.608437038669001</v>
+        <v>1.359321</v>
       </c>
       <c r="N2">
-        <v>0.608437038669001</v>
+        <v>4.077963</v>
       </c>
       <c r="O2">
-        <v>0.6631267884036741</v>
+        <v>0.5129683551755682</v>
       </c>
       <c r="P2">
-        <v>0.6631267884036741</v>
+        <v>0.512968355175568</v>
       </c>
       <c r="Q2">
-        <v>15.66041480741224</v>
+        <v>39.857104601107</v>
       </c>
       <c r="R2">
-        <v>15.66041480741224</v>
+        <v>358.713941409963</v>
       </c>
       <c r="S2">
-        <v>0.004025292544046524</v>
+        <v>0.003283982288791891</v>
       </c>
       <c r="T2">
-        <v>0.004025292544046524</v>
+        <v>0.00328398228879189</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>25.7387598257833</v>
+        <v>29.32133366666666</v>
       </c>
       <c r="H3">
-        <v>25.7387598257833</v>
+        <v>87.964001</v>
       </c>
       <c r="I3">
-        <v>0.006070170311979845</v>
+        <v>0.006401919837078288</v>
       </c>
       <c r="J3">
-        <v>0.006070170311979845</v>
+        <v>0.006401919837078288</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.309090422608312</v>
+        <v>0.6503416666666667</v>
       </c>
       <c r="N3">
-        <v>0.309090422608312</v>
+        <v>1.951025</v>
       </c>
       <c r="O3">
-        <v>0.3368732115963259</v>
+        <v>0.2454200994850647</v>
       </c>
       <c r="P3">
-        <v>0.3368732115963259</v>
+        <v>0.2454200994850647</v>
       </c>
       <c r="Q3">
-        <v>7.955604151965203</v>
+        <v>19.06888500566944</v>
       </c>
       <c r="R3">
-        <v>7.955604151965203</v>
+        <v>171.619965051025</v>
       </c>
       <c r="S3">
-        <v>0.002044877767933322</v>
+        <v>0.001571159803311163</v>
       </c>
       <c r="T3">
-        <v>0.002044877767933322</v>
+        <v>0.001571159803311163</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>42.9566938861627</v>
+        <v>29.32133366666666</v>
       </c>
       <c r="H4">
-        <v>42.9566938861627</v>
+        <v>87.964001</v>
       </c>
       <c r="I4">
-        <v>0.01013080854297359</v>
+        <v>0.006401919837078288</v>
       </c>
       <c r="J4">
-        <v>0.01013080854297359</v>
+        <v>0.006401919837078288</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.608437038669001</v>
+        <v>0.4430953333333334</v>
       </c>
       <c r="N4">
-        <v>0.608437038669001</v>
+        <v>1.329286</v>
       </c>
       <c r="O4">
-        <v>0.6631267884036741</v>
+        <v>0.1672113388419439</v>
       </c>
       <c r="P4">
-        <v>0.6631267884036741</v>
+        <v>0.1672113388419439</v>
       </c>
       <c r="Q4">
-        <v>26.13644361910761</v>
+        <v>12.99214611480956</v>
       </c>
       <c r="R4">
-        <v>26.13644361910761</v>
+        <v>116.929315033286</v>
       </c>
       <c r="S4">
-        <v>0.006718010533034583</v>
+        <v>0.00107047358711666</v>
       </c>
       <c r="T4">
-        <v>0.006718010533034583</v>
+        <v>0.00107047358711666</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,60 +714,60 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>42.9566938861627</v>
+        <v>29.32133366666666</v>
       </c>
       <c r="H5">
-        <v>42.9566938861627</v>
+        <v>87.964001</v>
       </c>
       <c r="I5">
-        <v>0.01013080854297359</v>
+        <v>0.006401919837078288</v>
       </c>
       <c r="J5">
-        <v>0.01013080854297359</v>
+        <v>0.006401919837078288</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.309090422608312</v>
+        <v>0.197154</v>
       </c>
       <c r="N5">
-        <v>0.309090422608312</v>
+        <v>0.591462</v>
       </c>
       <c r="O5">
-        <v>0.3368732115963259</v>
+        <v>0.07440020649742332</v>
       </c>
       <c r="P5">
-        <v>0.3368732115963259</v>
+        <v>0.07440020649742331</v>
       </c>
       <c r="Q5">
-        <v>13.27750266712992</v>
+        <v>5.780818217718</v>
       </c>
       <c r="R5">
-        <v>13.27750266712992</v>
+        <v>52.027363959462</v>
       </c>
       <c r="S5">
-        <v>0.003412798009939009</v>
+        <v>0.0004763041578585753</v>
       </c>
       <c r="T5">
-        <v>0.003412798009939009</v>
+        <v>0.0004763041578585753</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,60 +776,60 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4143.12765351171</v>
+        <v>45.524413</v>
       </c>
       <c r="H6">
-        <v>4143.12765351171</v>
+        <v>136.573239</v>
       </c>
       <c r="I6">
-        <v>0.9771057600023327</v>
+        <v>0.009939644832300594</v>
       </c>
       <c r="J6">
-        <v>0.9771057600023327</v>
+        <v>0.009939644832300592</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.608437038669001</v>
+        <v>1.359321</v>
       </c>
       <c r="N6">
-        <v>0.608437038669001</v>
+        <v>4.077963</v>
       </c>
       <c r="O6">
-        <v>0.6631267884036741</v>
+        <v>0.5129683551755682</v>
       </c>
       <c r="P6">
-        <v>0.6631267884036741</v>
+        <v>0.512968355175568</v>
       </c>
       <c r="Q6">
-        <v>2520.832320330312</v>
+        <v>61.88229060357301</v>
       </c>
       <c r="R6">
-        <v>2520.832320330312</v>
+        <v>556.9406154321571</v>
       </c>
       <c r="S6">
-        <v>0.6479450045610781</v>
+        <v>0.005098723260654572</v>
       </c>
       <c r="T6">
-        <v>0.6479450045610781</v>
+        <v>0.005098723260654569</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4143.12765351171</v>
+        <v>45.524413</v>
       </c>
       <c r="H7">
-        <v>4143.12765351171</v>
+        <v>136.573239</v>
       </c>
       <c r="I7">
-        <v>0.9771057600023327</v>
+        <v>0.009939644832300594</v>
       </c>
       <c r="J7">
-        <v>0.9771057600023327</v>
+        <v>0.009939644832300592</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.309090422608312</v>
+        <v>0.6503416666666667</v>
       </c>
       <c r="N7">
-        <v>0.309090422608312</v>
+        <v>1.951025</v>
       </c>
       <c r="O7">
-        <v>0.3368732115963259</v>
+        <v>0.2454200994850647</v>
       </c>
       <c r="P7">
-        <v>0.3368732115963259</v>
+        <v>0.2454200994850647</v>
       </c>
       <c r="Q7">
-        <v>1280.601077344118</v>
+        <v>29.60642262444167</v>
       </c>
       <c r="R7">
-        <v>1280.601077344118</v>
+        <v>266.457803619975</v>
       </c>
       <c r="S7">
-        <v>0.3291607554412547</v>
+        <v>0.002439388623589421</v>
       </c>
       <c r="T7">
-        <v>0.3291607554412547</v>
+        <v>0.00243938862358942</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>28.3807919958291</v>
+        <v>45.524413</v>
       </c>
       <c r="H8">
-        <v>28.3807919958291</v>
+        <v>136.573239</v>
       </c>
       <c r="I8">
-        <v>0.006693261142713747</v>
+        <v>0.009939644832300594</v>
       </c>
       <c r="J8">
-        <v>0.006693261142713747</v>
+        <v>0.009939644832300592</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.608437038669001</v>
+        <v>0.4430953333333334</v>
       </c>
       <c r="N8">
-        <v>0.608437038669001</v>
+        <v>1.329286</v>
       </c>
       <c r="O8">
-        <v>0.6631267884036741</v>
+        <v>0.1672113388419439</v>
       </c>
       <c r="P8">
-        <v>0.6631267884036741</v>
+        <v>0.1672113388419439</v>
       </c>
       <c r="Q8">
-        <v>17.26792503702314</v>
+        <v>20.17165495303934</v>
       </c>
       <c r="R8">
-        <v>17.26792503702314</v>
+        <v>181.544894577354</v>
       </c>
       <c r="S8">
-        <v>0.004438480765514873</v>
+        <v>0.001662021320022392</v>
       </c>
       <c r="T8">
-        <v>0.004438480765514873</v>
+        <v>0.001662021320022391</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,551 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>45.524413</v>
+      </c>
+      <c r="H9">
+        <v>136.573239</v>
+      </c>
+      <c r="I9">
+        <v>0.009939644832300594</v>
+      </c>
+      <c r="J9">
+        <v>0.009939644832300592</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.197154</v>
+      </c>
+      <c r="N9">
+        <v>0.591462</v>
+      </c>
+      <c r="O9">
+        <v>0.07440020649742332</v>
+      </c>
+      <c r="P9">
+        <v>0.07440020649742331</v>
+      </c>
+      <c r="Q9">
+        <v>8.975320120602001</v>
+      </c>
+      <c r="R9">
+        <v>80.777881085418</v>
+      </c>
+      <c r="S9">
+        <v>0.0007395116280342108</v>
+      </c>
+      <c r="T9">
+        <v>0.0007395116280342106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>28.3807919958291</v>
-      </c>
-      <c r="H9">
-        <v>28.3807919958291</v>
-      </c>
-      <c r="I9">
-        <v>0.006693261142713747</v>
-      </c>
-      <c r="J9">
-        <v>0.006693261142713747</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.309090422608312</v>
-      </c>
-      <c r="N9">
-        <v>0.309090422608312</v>
-      </c>
-      <c r="O9">
-        <v>0.3368732115963259</v>
-      </c>
-      <c r="P9">
-        <v>0.3368732115963259</v>
-      </c>
-      <c r="Q9">
-        <v>8.772230991949415</v>
-      </c>
-      <c r="R9">
-        <v>8.772230991949415</v>
-      </c>
-      <c r="S9">
-        <v>0.002254780377198874</v>
-      </c>
-      <c r="T9">
-        <v>0.002254780377198874</v>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>4438.215250666667</v>
+      </c>
+      <c r="H10">
+        <v>13314.645752</v>
+      </c>
+      <c r="I10">
+        <v>0.9690247577915309</v>
+      </c>
+      <c r="J10">
+        <v>0.9690247577915307</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>1.359321</v>
+      </c>
+      <c r="N10">
+        <v>4.077963</v>
+      </c>
+      <c r="O10">
+        <v>0.5129683551755682</v>
+      </c>
+      <c r="P10">
+        <v>0.512968355175568</v>
+      </c>
+      <c r="Q10">
+        <v>6032.959192751466</v>
+      </c>
+      <c r="R10">
+        <v>54296.63273476318</v>
+      </c>
+      <c r="S10">
+        <v>0.4970790361287249</v>
+      </c>
+      <c r="T10">
+        <v>0.4970790361287247</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>4438.215250666667</v>
+      </c>
+      <c r="H11">
+        <v>13314.645752</v>
+      </c>
+      <c r="I11">
+        <v>0.9690247577915309</v>
+      </c>
+      <c r="J11">
+        <v>0.9690247577915307</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.6503416666666667</v>
+      </c>
+      <c r="N11">
+        <v>1.951025</v>
+      </c>
+      <c r="O11">
+        <v>0.2454200994850647</v>
+      </c>
+      <c r="P11">
+        <v>0.2454200994850647</v>
+      </c>
+      <c r="Q11">
+        <v>2886.356303143978</v>
+      </c>
+      <c r="R11">
+        <v>25977.20672829581</v>
+      </c>
+      <c r="S11">
+        <v>0.2378181524606882</v>
+      </c>
+      <c r="T11">
+        <v>0.2378181524606882</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>4438.215250666667</v>
+      </c>
+      <c r="H12">
+        <v>13314.645752</v>
+      </c>
+      <c r="I12">
+        <v>0.9690247577915309</v>
+      </c>
+      <c r="J12">
+        <v>0.9690247577915307</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.4430953333333334</v>
+      </c>
+      <c r="N12">
+        <v>1.329286</v>
+      </c>
+      <c r="O12">
+        <v>0.1672113388419439</v>
+      </c>
+      <c r="P12">
+        <v>0.1672113388419439</v>
+      </c>
+      <c r="Q12">
+        <v>1966.552465899231</v>
+      </c>
+      <c r="R12">
+        <v>17698.97219309308</v>
+      </c>
+      <c r="S12">
+        <v>0.1620319271213123</v>
+      </c>
+      <c r="T12">
+        <v>0.1620319271213123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>4438.215250666667</v>
+      </c>
+      <c r="H13">
+        <v>13314.645752</v>
+      </c>
+      <c r="I13">
+        <v>0.9690247577915309</v>
+      </c>
+      <c r="J13">
+        <v>0.9690247577915307</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.197154</v>
+      </c>
+      <c r="N13">
+        <v>0.591462</v>
+      </c>
+      <c r="O13">
+        <v>0.07440020649742332</v>
+      </c>
+      <c r="P13">
+        <v>0.07440020649742331</v>
+      </c>
+      <c r="Q13">
+        <v>875.0118895299362</v>
+      </c>
+      <c r="R13">
+        <v>7875.107005769425</v>
+      </c>
+      <c r="S13">
+        <v>0.07209564208080552</v>
+      </c>
+      <c r="T13">
+        <v>0.07209564208080549</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>67.02347933333333</v>
+      </c>
+      <c r="H14">
+        <v>201.070438</v>
+      </c>
+      <c r="I14">
+        <v>0.01463367753909034</v>
+      </c>
+      <c r="J14">
+        <v>0.01463367753909034</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>1.359321</v>
+      </c>
+      <c r="N14">
+        <v>4.077963</v>
+      </c>
+      <c r="O14">
+        <v>0.5129683551755682</v>
+      </c>
+      <c r="P14">
+        <v>0.512968355175568</v>
+      </c>
+      <c r="Q14">
+        <v>91.106422950866</v>
+      </c>
+      <c r="R14">
+        <v>819.9578065577941</v>
+      </c>
+      <c r="S14">
+        <v>0.007506613497396827</v>
+      </c>
+      <c r="T14">
+        <v>0.007506613497396826</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>67.02347933333333</v>
+      </c>
+      <c r="H15">
+        <v>201.070438</v>
+      </c>
+      <c r="I15">
+        <v>0.01463367753909034</v>
+      </c>
+      <c r="J15">
+        <v>0.01463367753909034</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.6503416666666667</v>
+      </c>
+      <c r="N15">
+        <v>1.951025</v>
+      </c>
+      <c r="O15">
+        <v>0.2454200994850647</v>
+      </c>
+      <c r="P15">
+        <v>0.2454200994850647</v>
+      </c>
+      <c r="Q15">
+        <v>43.58816125543889</v>
+      </c>
+      <c r="R15">
+        <v>392.2934512989501</v>
+      </c>
+      <c r="S15">
+        <v>0.003591398597475907</v>
+      </c>
+      <c r="T15">
+        <v>0.003591398597475907</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>67.02347933333333</v>
+      </c>
+      <c r="H16">
+        <v>201.070438</v>
+      </c>
+      <c r="I16">
+        <v>0.01463367753909034</v>
+      </c>
+      <c r="J16">
+        <v>0.01463367753909034</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.4430953333333334</v>
+      </c>
+      <c r="N16">
+        <v>1.329286</v>
+      </c>
+      <c r="O16">
+        <v>0.1672113388419439</v>
+      </c>
+      <c r="P16">
+        <v>0.1672113388419439</v>
+      </c>
+      <c r="Q16">
+        <v>29.69779091636311</v>
+      </c>
+      <c r="R16">
+        <v>267.280118247268</v>
+      </c>
+      <c r="S16">
+        <v>0.002446916813492579</v>
+      </c>
+      <c r="T16">
+        <v>0.002446916813492579</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>67.02347933333333</v>
+      </c>
+      <c r="H17">
+        <v>201.070438</v>
+      </c>
+      <c r="I17">
+        <v>0.01463367753909034</v>
+      </c>
+      <c r="J17">
+        <v>0.01463367753909034</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.197154</v>
+      </c>
+      <c r="N17">
+        <v>0.591462</v>
+      </c>
+      <c r="O17">
+        <v>0.07440020649742332</v>
+      </c>
+      <c r="P17">
+        <v>0.07440020649742331</v>
+      </c>
+      <c r="Q17">
+        <v>13.213947044484</v>
+      </c>
+      <c r="R17">
+        <v>118.925523400356</v>
+      </c>
+      <c r="S17">
+        <v>0.001088748630725027</v>
+      </c>
+      <c r="T17">
+        <v>0.001088748630725027</v>
       </c>
     </row>
   </sheetData>
